--- a/data/trans_orig/P1202-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1202-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C6C7A5C-975C-4BC2-8542-38605F1A9FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC91313A-91CB-476C-83DA-4308A30DB58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5B7D19C-D8DA-4445-BEED-90549B953202}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EFE97283-99CB-4F26-8F91-01691EC9323B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="788">
   <si>
     <t>Población según frecuencia de tener mucha energía en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,2263 +77,2332 @@
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,82%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>Sólo alguna vez</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>Algunas Veces</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>Muchas Veces</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>Casi Siempre</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de tener mucha energía en 2012 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de tener mucha energía en 2015 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de tener mucha energía en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>Sólo alguna vez</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>Algunas Veces</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>Muchas Veces</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>Casi Siempre</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
   <si>
     <t>15,83%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de tener mucha energía en 2012 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de tener mucha energía en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de tener mucha energía en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
+    <t>35,46%</t>
   </si>
 </sst>
 </file>
@@ -2745,7 +2814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1D27C4-E18F-42A2-BE12-F7A242EBAE01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4F29B3-0AD8-49F6-AF2A-24AE8F900B76}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3103,19 +3172,19 @@
         <v>608193</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>223</v>
@@ -3124,13 +3193,13 @@
         <v>224520</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>179</v>
@@ -3139,13 +3208,13 @@
         <v>183140</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>402</v>
@@ -3154,13 +3223,13 @@
         <v>407660</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3244,13 @@
         <v>1031723</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>1291</v>
@@ -3190,13 +3259,13 @@
         <v>1315113</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>2329</v>
@@ -3205,18 +3274,18 @@
         <v>2346836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -3228,13 +3297,13 @@
         <v>18886</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -3243,13 +3312,13 @@
         <v>22284</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>41</v>
@@ -3258,10 +3327,10 @@
         <v>41170</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>79</v>
@@ -3294,13 +3363,13 @@
         <v>69436</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>116</v>
@@ -3309,13 +3378,13 @@
         <v>119602</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3399,13 @@
         <v>186370</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>260</v>
@@ -3345,13 +3414,13 @@
         <v>269791</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>444</v>
@@ -3360,13 +3429,13 @@
         <v>456161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3450,13 @@
         <v>265158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>328</v>
@@ -3396,13 +3465,13 @@
         <v>335891</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>579</v>
@@ -3411,13 +3480,13 @@
         <v>601048</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3501,13 @@
         <v>643023</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H15" s="7">
         <v>565</v>
@@ -3447,13 +3516,13 @@
         <v>570487</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M15" s="7">
         <v>1202</v>
@@ -3462,19 +3531,19 @@
         <v>1213511</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7">
         <v>509</v>
@@ -3483,13 +3552,13 @@
         <v>529808</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H16" s="7">
         <v>312</v>
@@ -3498,13 +3567,13 @@
         <v>319785</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M16" s="7">
         <v>821</v>
@@ -3513,13 +3582,13 @@
         <v>849593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3603,13 @@
         <v>1693412</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>1554</v>
@@ -3549,13 +3618,13 @@
         <v>1587673</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>3203</v>
@@ -3564,18 +3633,18 @@
         <v>3281086</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3587,13 +3656,13 @@
         <v>3750</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -3602,13 +3671,13 @@
         <v>4779</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -3617,13 +3686,13 @@
         <v>8529</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3707,13 @@
         <v>17230</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -3653,13 +3722,13 @@
         <v>23995</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -3668,13 +3737,13 @@
         <v>41225</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3758,13 @@
         <v>67468</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>90</v>
@@ -3704,13 +3773,13 @@
         <v>93316</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>156</v>
@@ -3719,13 +3788,13 @@
         <v>160784</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3809,13 @@
         <v>70715</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H21" s="7">
         <v>76</v>
@@ -3755,13 +3824,13 @@
         <v>79881</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M21" s="7">
         <v>142</v>
@@ -3770,13 +3839,13 @@
         <v>150596</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3860,13 @@
         <v>208668</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -3806,13 +3875,13 @@
         <v>185947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>379</v>
@@ -3821,19 +3890,19 @@
         <v>394614</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>174</v>
@@ -3842,13 +3911,13 @@
         <v>183577</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="H23" s="7">
         <v>83</v>
@@ -3857,13 +3926,13 @@
         <v>88494</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M23" s="7">
         <v>257</v>
@@ -3872,10 +3941,10 @@
         <v>272071</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>175</v>
@@ -3893,13 +3962,13 @@
         <v>551408</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>452</v>
@@ -3908,13 +3977,13 @@
         <v>476412</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>979</v>
@@ -3923,13 +3992,13 @@
         <v>1027820</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,7 +4021,7 @@
         <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -3961,13 +4030,13 @@
         <v>82356</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -3976,10 +4045,10 @@
         <v>132589</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>183</v>
@@ -3997,7 +4066,7 @@
         <v>143269</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>184</v>
@@ -4048,13 +4117,13 @@
         <v>495950</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H27" s="7">
         <v>760</v>
@@ -4120,7 +4189,7 @@
         <v>204</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
         <v>1109</v>
@@ -4129,13 +4198,13 @@
         <v>1135726</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4219,13 @@
         <v>1145214</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H29" s="7">
         <v>1057</v>
@@ -4165,13 +4234,13 @@
         <v>1071104</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M29" s="7">
         <v>2190</v>
@@ -4180,19 +4249,19 @@
         <v>2216317</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>906</v>
@@ -4201,13 +4270,13 @@
         <v>937906</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H30" s="7">
         <v>574</v>
@@ -4216,13 +4285,13 @@
         <v>591419</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M30" s="7">
         <v>1480</v>
@@ -4231,13 +4300,13 @@
         <v>1529324</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4321,13 @@
         <v>3276544</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7">
         <v>3297</v>
@@ -4267,33 +4336,33 @@
         <v>3379198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4312,7 +4381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0A7A6F-F1A1-4650-8CC5-4DE5A7FAADC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E359431-9E92-44E5-942F-4768EF7049E3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4329,7 +4398,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4436,13 +4505,13 @@
         <v>29586</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7">
         <v>85</v>
@@ -4451,13 +4520,13 @@
         <v>92524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>110</v>
@@ -4466,13 +4535,13 @@
         <v>122111</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,10 +4556,10 @@
         <v>66928</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>236</v>
@@ -4553,13 +4622,13 @@
         <v>369940</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M6" s="7">
         <v>530</v>
@@ -4568,13 +4637,13 @@
         <v>570712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4658,13 @@
         <v>125920</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>182</v>
@@ -4604,7 +4673,7 @@
         <v>194431</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>255</v>
@@ -4682,7 +4751,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>248</v>
@@ -4694,10 +4763,10 @@
         <v>269</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7">
         <v>217</v>
@@ -4706,10 +4775,10 @@
         <v>232833</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>273</v>
@@ -4742,13 +4811,13 @@
         <v>973678</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>1246</v>
@@ -4757,13 +4826,13 @@
         <v>1336846</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>2153</v>
@@ -4772,18 +4841,18 @@
         <v>2310524</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -4801,7 +4870,7 @@
         <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -4813,10 +4882,10 @@
         <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -4825,13 +4894,13 @@
         <v>107308</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4915,13 @@
         <v>36863</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -4861,13 +4930,13 @@
         <v>82133</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M12" s="7">
         <v>104</v>
@@ -4876,13 +4945,13 @@
         <v>118996</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4966,13 @@
         <v>221043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H13" s="7">
         <v>249</v>
@@ -4912,13 +4981,13 @@
         <v>265820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>457</v>
@@ -4927,13 +4996,13 @@
         <v>486862</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +5017,13 @@
         <v>278722</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>238</v>
@@ -4963,13 +5032,13 @@
         <v>254499</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
@@ -5041,7 +5110,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7">
         <v>738</v>
@@ -5101,13 +5170,13 @@
         <v>1962826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>1631</v>
@@ -5116,13 +5185,13 @@
         <v>1752858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>3486</v>
@@ -5131,18 +5200,18 @@
         <v>3715684</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5172,10 +5241,10 @@
         <v>332</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -5184,10 +5253,10 @@
         <v>12065</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>336</v>
@@ -5205,13 +5274,13 @@
         <v>7654</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>339</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5220,13 +5289,13 @@
         <v>13093</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -5235,13 +5304,13 @@
         <v>20747</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>283</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5325,13 @@
         <v>57264</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -5271,13 +5340,13 @@
         <v>64440</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>345</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -5373,13 +5442,13 @@
         <v>153552</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M22" s="7">
         <v>281</v>
@@ -5400,7 +5469,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>170</v>
@@ -5460,13 +5529,13 @@
         <v>480244</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>411</v>
@@ -5475,13 +5544,13 @@
         <v>457567</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>848</v>
@@ -5490,13 +5559,13 @@
         <v>937811</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5582,13 @@
         <v>77481</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H25" s="7">
         <v>147</v>
@@ -5528,13 +5597,13 @@
         <v>164003</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>381</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>382</v>
+        <v>84</v>
       </c>
       <c r="M25" s="7">
         <v>218</v>
@@ -5543,13 +5612,13 @@
         <v>241483</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5633,13 @@
         <v>111444</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>386</v>
+        <v>292</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H26" s="7">
         <v>183</v>
@@ -5579,13 +5648,13 @@
         <v>202233</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M26" s="7">
         <v>280</v>
@@ -5594,13 +5663,13 @@
         <v>313677</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>389</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5684,13 @@
         <v>479078</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H27" s="7">
         <v>652</v>
@@ -5630,13 +5699,13 @@
         <v>700199</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M27" s="7">
         <v>1095</v>
@@ -5645,13 +5714,13 @@
         <v>1179278</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5735,13 @@
         <v>480617</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H28" s="7">
         <v>480</v>
@@ -5681,13 +5750,13 @@
         <v>516177</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M28" s="7">
         <v>927</v>
@@ -5696,10 +5765,10 @@
         <v>996794</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>407</v>
@@ -5759,7 +5828,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>1156</v>
@@ -5819,13 +5888,13 @@
         <v>3416748</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7">
         <v>3288</v>
@@ -5834,13 +5903,13 @@
         <v>3547270</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>6487</v>
@@ -5849,18 +5918,18 @@
         <v>6964018</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5879,7 +5948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7FA786-E730-44AD-8F81-5AE3945BC5DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332382FD-8D69-45F1-9931-F4B27BA9A8A4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6006,10 +6075,10 @@
         <v>427</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>331</v>
+        <v>428</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>428</v>
+        <v>134</v>
       </c>
       <c r="H4" s="7">
         <v>52</v>
@@ -6018,13 +6087,13 @@
         <v>60038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>191</v>
+        <v>429</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M4" s="7">
         <v>81</v>
@@ -6033,13 +6102,13 @@
         <v>86473</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,13 +6123,13 @@
         <v>47674</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H5" s="7">
         <v>104</v>
@@ -6069,13 +6138,13 @@
         <v>123565</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
@@ -6084,13 +6153,13 @@
         <v>171238</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6174,13 @@
         <v>168447</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H6" s="7">
         <v>227</v>
@@ -6120,13 +6189,13 @@
         <v>255541</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M6" s="7">
         <v>405</v>
@@ -6135,13 +6204,13 @@
         <v>423988</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6156,13 +6225,13 @@
         <v>183580</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>454</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
         <v>206</v>
@@ -6174,10 +6243,10 @@
         <v>455</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M7" s="7">
         <v>394</v>
@@ -6186,13 +6255,13 @@
         <v>407068</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,7 +6282,7 @@
         <v>461</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>462</v>
       </c>
       <c r="H8" s="7">
         <v>161</v>
@@ -6222,13 +6291,13 @@
         <v>175583</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>93</v>
+        <v>464</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M8" s="7">
         <v>312</v>
@@ -6237,19 +6306,19 @@
         <v>326910</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>166</v>
@@ -6258,13 +6327,13 @@
         <v>175897</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H9" s="7">
         <v>140</v>
@@ -6273,13 +6342,13 @@
         <v>154330</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>310</v>
+        <v>471</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M9" s="7">
         <v>306</v>
@@ -6288,13 +6357,13 @@
         <v>330226</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,13 +6378,13 @@
         <v>753360</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>890</v>
@@ -6324,13 +6393,13 @@
         <v>992544</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>1651</v>
@@ -6339,18 +6408,18 @@
         <v>1745904</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -6362,13 +6431,13 @@
         <v>25189</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>12</v>
+        <v>479</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -6377,13 +6446,13 @@
         <v>41794</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>479</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -6392,13 +6461,13 @@
         <v>66983</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>482</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>477</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,13 +6482,13 @@
         <v>50210</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>482</v>
+        <v>377</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -6428,13 +6497,13 @@
         <v>75044</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>485</v>
+        <v>228</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>280</v>
+        <v>487</v>
       </c>
       <c r="M12" s="7">
         <v>113</v>
@@ -6443,13 +6512,13 @@
         <v>125255</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>334</v>
+        <v>488</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>286</v>
+        <v>489</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,13 +6533,13 @@
         <v>196216</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H13" s="7">
         <v>236</v>
@@ -6479,13 +6548,13 @@
         <v>252799</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>495</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="M13" s="7">
         <v>422</v>
@@ -6494,13 +6563,13 @@
         <v>449015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,13 +6584,13 @@
         <v>382499</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>496</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>497</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>342</v>
@@ -6530,13 +6599,13 @@
         <v>360360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>499</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M14" s="7">
         <v>709</v>
@@ -6545,13 +6614,13 @@
         <v>742859</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6635,13 @@
         <v>629835</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H15" s="7">
         <v>573</v>
@@ -6581,13 +6650,13 @@
         <v>588198</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>509</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="M15" s="7">
         <v>1162</v>
@@ -6596,19 +6665,19 @@
         <v>1218033</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7">
         <v>739</v>
@@ -6617,13 +6686,13 @@
         <v>789313</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="H16" s="7">
         <v>648</v>
@@ -6632,13 +6701,13 @@
         <v>667071</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="M16" s="7">
         <v>1387</v>
@@ -6647,13 +6716,13 @@
         <v>1456384</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>522</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6668,13 +6737,13 @@
         <v>2073262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>1905</v>
@@ -6683,13 +6752,13 @@
         <v>1985266</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>3854</v>
@@ -6698,18 +6767,18 @@
         <v>4058528</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6721,13 +6790,13 @@
         <v>8842</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>520</v>
+        <v>333</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -6739,10 +6808,10 @@
         <v>329</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>133</v>
+        <v>526</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>521</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -6751,13 +6820,13 @@
         <v>14623</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,13 +6841,13 @@
         <v>7342</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -6787,13 +6856,13 @@
         <v>10974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>526</v>
+        <v>76</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>532</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -6802,13 +6871,13 @@
         <v>18316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,13 +6892,13 @@
         <v>56245</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -6838,13 +6907,13 @@
         <v>68892</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>535</v>
+        <v>67</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -6853,13 +6922,13 @@
         <v>125138</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>536</v>
+        <v>355</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,13 +6943,13 @@
         <v>108027</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -6889,13 +6958,13 @@
         <v>109967</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>398</v>
+        <v>299</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="M21" s="7">
         <v>205</v>
@@ -6904,13 +6973,13 @@
         <v>217993</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>204</v>
+        <v>550</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,13 +6994,13 @@
         <v>172619</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -6940,13 +7009,13 @@
         <v>176845</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="M22" s="7">
         <v>327</v>
@@ -6955,19 +7024,19 @@
         <v>349464</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>173</v>
@@ -6976,13 +7045,13 @@
         <v>193810</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>554</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="H23" s="7">
         <v>171</v>
@@ -6991,13 +7060,13 @@
         <v>175612</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="M23" s="7">
         <v>344</v>
@@ -7006,13 +7075,13 @@
         <v>369422</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,13 +7096,13 @@
         <v>546886</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>525</v>
@@ -7042,13 +7111,13 @@
         <v>548070</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>1026</v>
@@ -7057,13 +7126,13 @@
         <v>1094956</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,13 +7149,13 @@
         <v>60467</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>482</v>
+        <v>568</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>341</v>
+        <v>569</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>282</v>
+        <v>570</v>
       </c>
       <c r="H25" s="7">
         <v>96</v>
@@ -7095,13 +7164,13 @@
         <v>107612</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="M25" s="7">
         <v>155</v>
@@ -7110,13 +7179,13 @@
         <v>168078</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,13 +7200,13 @@
         <v>105226</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>486</v>
+        <v>577</v>
       </c>
       <c r="H26" s="7">
         <v>180</v>
@@ -7146,13 +7215,13 @@
         <v>209583</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>22</v>
+        <v>578</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>568</v>
+        <v>133</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="M26" s="7">
         <v>282</v>
@@ -7161,13 +7230,13 @@
         <v>314809</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,13 +7251,13 @@
         <v>420908</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="H27" s="7">
         <v>530</v>
@@ -7200,10 +7269,10 @@
         <v>47</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="M27" s="7">
         <v>948</v>
@@ -7212,13 +7281,13 @@
         <v>998141</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>200</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,13 +7302,13 @@
         <v>674106</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>581</v>
+        <v>356</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>274</v>
+        <v>591</v>
       </c>
       <c r="H28" s="7">
         <v>654</v>
@@ -7248,13 +7317,13 @@
         <v>693814</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="M28" s="7">
         <v>1308</v>
@@ -7263,13 +7332,13 @@
         <v>1367920</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,13 +7353,13 @@
         <v>953781</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="H29" s="7">
         <v>901</v>
@@ -7299,13 +7368,13 @@
         <v>940626</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="M29" s="7">
         <v>1801</v>
@@ -7314,19 +7383,19 @@
         <v>1894407</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>422</v>
+        <v>604</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>33</v>
+        <v>605</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>1078</v>
@@ -7335,13 +7404,13 @@
         <v>1159020</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="H30" s="7">
         <v>959</v>
@@ -7350,13 +7419,13 @@
         <v>997013</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="M30" s="7">
         <v>2037</v>
@@ -7365,13 +7434,13 @@
         <v>2156033</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>601</v>
+        <v>413</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>323</v>
+        <v>613</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,13 +7455,13 @@
         <v>3373508</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7">
         <v>3320</v>
@@ -7401,13 +7470,13 @@
         <v>3525880</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>6531</v>
@@ -7416,18 +7485,18 @@
         <v>6899388</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -7446,7 +7515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE24E91-9947-42C3-884B-901190D8BD31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4B115A-46B0-400C-B19E-EF830CA48A61}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7463,7 +7532,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7570,13 +7639,13 @@
         <v>22511</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>181</v>
+        <v>617</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="H4" s="7">
         <v>139</v>
@@ -7585,13 +7654,13 @@
         <v>70075</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="M4" s="7">
         <v>175</v>
@@ -7600,13 +7669,13 @@
         <v>92586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7621,13 +7690,13 @@
         <v>49213</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="H5" s="7">
         <v>165</v>
@@ -7636,13 +7705,13 @@
         <v>93986</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="M5" s="7">
         <v>231</v>
@@ -7651,13 +7720,13 @@
         <v>143199</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,13 +7741,13 @@
         <v>104935</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>455</v>
+        <v>635</v>
       </c>
       <c r="H6" s="7">
         <v>341</v>
@@ -7687,13 +7756,13 @@
         <v>201278</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="M6" s="7">
         <v>481</v>
@@ -7702,13 +7771,13 @@
         <v>306213</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>199</v>
+        <v>640</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>196</v>
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,13 +7792,13 @@
         <v>111435</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>67</v>
+        <v>643</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="H7" s="7">
         <v>286</v>
@@ -7738,13 +7807,13 @@
         <v>163600</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>273</v>
+        <v>645</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>628</v>
+        <v>587</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>195</v>
+        <v>646</v>
       </c>
       <c r="M7" s="7">
         <v>423</v>
@@ -7753,13 +7822,13 @@
         <v>275036</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7774,13 +7843,13 @@
         <v>120700</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>650</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="H8" s="7">
         <v>298</v>
@@ -7789,13 +7858,13 @@
         <v>178853</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="M8" s="7">
         <v>449</v>
@@ -7804,19 +7873,19 @@
         <v>299554</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>637</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>160</v>
@@ -7825,13 +7894,13 @@
         <v>131866</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>627</v>
+        <v>62</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>658</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="H9" s="7">
         <v>196</v>
@@ -7840,13 +7909,13 @@
         <v>127046</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>641</v>
+        <v>407</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="M9" s="7">
         <v>356</v>
@@ -7855,13 +7924,13 @@
         <v>258912</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>645</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,13 +7945,13 @@
         <v>540661</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>1425</v>
@@ -7891,13 +7960,13 @@
         <v>834839</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>2115</v>
@@ -7906,18 +7975,18 @@
         <v>1375500</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -7929,13 +7998,13 @@
         <v>27871</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>647</v>
+        <v>75</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -7944,13 +8013,13 @@
         <v>38326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>649</v>
+        <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>650</v>
+        <v>483</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -7959,13 +8028,13 @@
         <v>66197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>667</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7980,13 +8049,13 @@
         <v>71975</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
@@ -7995,13 +8064,13 @@
         <v>97990</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>185</v>
+        <v>673</v>
       </c>
       <c r="M12" s="7">
         <v>233</v>
@@ -8010,13 +8079,13 @@
         <v>169965</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>657</v>
+        <v>293</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,13 +8100,13 @@
         <v>230666</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>494</v>
+        <v>678</v>
       </c>
       <c r="H13" s="7">
         <v>550</v>
@@ -8046,28 +8115,28 @@
         <v>327777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="M13" s="7">
         <v>815</v>
       </c>
       <c r="N13" s="7">
-        <v>558443</v>
+        <v>558444</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8082,13 +8151,13 @@
         <v>347093</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>669</v>
+        <v>406</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="H14" s="7">
         <v>442</v>
@@ -8097,13 +8166,13 @@
         <v>295782</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>688</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>689</v>
       </c>
       <c r="M14" s="7">
         <v>759</v>
@@ -8112,13 +8181,13 @@
         <v>642875</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>43</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,13 +8202,13 @@
         <v>589424</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>248</v>
+        <v>693</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>674</v>
+        <v>612</v>
       </c>
       <c r="H15" s="7">
         <v>811</v>
@@ -8148,34 +8217,34 @@
         <v>705895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>675</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="M15" s="7">
         <v>1381</v>
       </c>
       <c r="N15" s="7">
-        <v>1295319</v>
+        <v>1295320</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>517</v>
+        <v>697</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7">
         <v>730</v>
@@ -8184,13 +8253,13 @@
         <v>894992</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="H16" s="7">
         <v>909</v>
@@ -8199,13 +8268,13 @@
         <v>782641</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>683</v>
+        <v>113</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="M16" s="7">
         <v>1639</v>
@@ -8214,13 +8283,13 @@
         <v>1677633</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>553</v>
+        <v>704</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>686</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,13 +8304,13 @@
         <v>2162022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>2919</v>
@@ -8250,33 +8319,33 @@
         <v>2248410</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>4911</v>
       </c>
       <c r="N17" s="7">
-        <v>4410432</v>
+        <v>4410433</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -8288,13 +8357,13 @@
         <v>5098</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>476</v>
+        <v>705</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -8303,13 +8372,13 @@
         <v>5996</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>478</v>
+        <v>709</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -8318,13 +8387,13 @@
         <v>11094</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>341</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8339,13 +8408,13 @@
         <v>31114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>692</v>
+        <v>712</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>693</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -8354,13 +8423,13 @@
         <v>19793</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>694</v>
+        <v>617</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
@@ -8369,13 +8438,13 @@
         <v>50907</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8390,13 +8459,13 @@
         <v>79125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>487</v>
+        <v>719</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>171</v>
@@ -8405,13 +8474,13 @@
         <v>115055</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>205</v>
+        <v>681</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>720</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="M20" s="7">
         <v>264</v>
@@ -8420,13 +8489,13 @@
         <v>194180</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>703</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8441,13 +8510,13 @@
         <v>97473</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>45</v>
+        <v>724</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="H21" s="7">
         <v>191</v>
@@ -8456,13 +8525,13 @@
         <v>119980</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>706</v>
+        <v>727</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="M21" s="7">
         <v>301</v>
@@ -8471,13 +8540,13 @@
         <v>217453</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>628</v>
+        <v>732</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8492,13 +8561,13 @@
         <v>187055</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="H22" s="7">
         <v>305</v>
@@ -8510,10 +8579,10 @@
         <v>408</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>714</v>
+        <v>265</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>316</v>
+        <v>736</v>
       </c>
       <c r="M22" s="7">
         <v>508</v>
@@ -8522,19 +8591,19 @@
         <v>406194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>175</v>
+        <v>315</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>239</v>
@@ -8543,13 +8612,13 @@
         <v>273175</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="H23" s="7">
         <v>289</v>
@@ -8558,13 +8627,13 @@
         <v>232234</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="M23" s="7">
         <v>528</v>
@@ -8573,13 +8642,13 @@
         <v>505409</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8594,13 +8663,13 @@
         <v>673039</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>1003</v>
@@ -8609,13 +8678,13 @@
         <v>712198</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>1684</v>
@@ -8624,13 +8693,13 @@
         <v>1385237</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8647,13 +8716,13 @@
         <v>55480</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>726</v>
+        <v>73</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>78</v>
+        <v>747</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>77</v>
+        <v>748</v>
       </c>
       <c r="H25" s="7">
         <v>202</v>
@@ -8662,13 +8731,13 @@
         <v>114397</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>749</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>654</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>283</v>
+        <v>750</v>
       </c>
       <c r="M25" s="7">
         <v>273</v>
@@ -8677,13 +8746,13 @@
         <v>169877</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>698</v>
+        <v>753</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8698,13 +8767,13 @@
         <v>152302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>729</v>
+        <v>754</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>730</v>
+        <v>755</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
       <c r="H26" s="7">
         <v>356</v>
@@ -8713,13 +8782,13 @@
         <v>211769</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>732</v>
+        <v>757</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>339</v>
+        <v>717</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>733</v>
+        <v>758</v>
       </c>
       <c r="M26" s="7">
         <v>533</v>
@@ -8728,13 +8797,13 @@
         <v>364071</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>734</v>
+        <v>759</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>570</v>
+        <v>760</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>732</v>
+        <v>761</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8749,13 +8818,13 @@
         <v>414726</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>669</v>
+        <v>763</v>
       </c>
       <c r="H27" s="7">
         <v>1062</v>
@@ -8764,13 +8833,13 @@
         <v>644110</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>737</v>
+        <v>764</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>738</v>
+        <v>586</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>739</v>
+        <v>765</v>
       </c>
       <c r="M27" s="7">
         <v>1560</v>
@@ -8779,13 +8848,13 @@
         <v>1058836</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>740</v>
+        <v>766</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>742</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8800,13 +8869,13 @@
         <v>556001</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="H28" s="7">
         <v>919</v>
@@ -8815,13 +8884,13 @@
         <v>579363</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>746</v>
+        <v>771</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>747</v>
+        <v>44</v>
       </c>
       <c r="M28" s="7">
         <v>1483</v>
@@ -8830,13 +8899,13 @@
         <v>1135364</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>154</v>
+        <v>772</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>748</v>
+        <v>773</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>749</v>
+        <v>774</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8851,13 +8920,13 @@
         <v>897179</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>752</v>
+        <v>555</v>
       </c>
       <c r="H29" s="7">
         <v>1414</v>
@@ -8866,13 +8935,13 @@
         <v>1103888</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>552</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="M29" s="7">
         <v>2338</v>
@@ -8881,19 +8950,19 @@
         <v>2001067</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>755</v>
+        <v>361</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>756</v>
+        <v>779</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>757</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>1129</v>
@@ -8902,13 +8971,13 @@
         <v>1300033</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>376</v>
+        <v>780</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>512</v>
+        <v>781</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>758</v>
+        <v>782</v>
       </c>
       <c r="H30" s="7">
         <v>1394</v>
@@ -8917,13 +8986,13 @@
         <v>1141921</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>759</v>
+        <v>613</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>760</v>
+        <v>783</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>761</v>
+        <v>784</v>
       </c>
       <c r="M30" s="7">
         <v>2523</v>
@@ -8932,13 +9001,13 @@
         <v>2441954</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>762</v>
+        <v>785</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>763</v>
+        <v>786</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>764</v>
+        <v>787</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8953,13 +9022,13 @@
         <v>3375722</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7">
         <v>5347</v>
@@ -8968,13 +9037,13 @@
         <v>3795448</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>8710</v>
@@ -8983,18 +9052,18 @@
         <v>7171170</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1202-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1202-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D94C88E-C848-4287-A7BA-7C07DB1D9B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BA4A86C-1985-44FF-9EBE-A1D3EEA68E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{758A53A4-3909-4515-B3C7-86CE748682EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{04CCABB0-D498-48C6-9F6A-F48AC15649F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="789">
-  <si>
-    <t>Población según frecuencia de tener mucha energía en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="765">
+  <si>
+    <t>Población según la frecuencia de tener mucha energía en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,2335 +77,2263 @@
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>Sólo alguna vez</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>Algunas Veces</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>Muchas Veces</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>Casi Siempre</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener mucha energía en 2012 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>Sólo alguna vez</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>Algunas Veces</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>30,23%</t>
   </si>
   <si>
-    <t>Muchas Veces</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener mucha energía en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
   </si>
   <si>
     <t>17,69%</t>
   </si>
   <si>
-    <t>Casi Siempre</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener mucha energía en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
   </si>
   <si>
     <t>24,11%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>21,76%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>19,25%</t>
   </si>
   <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de tener mucha energía en 2012 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de tener mucha energía en 2016 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
   </si>
   <si>
     <t>26,43%</t>
   </si>
   <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de tener mucha energía en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>36,35%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
   </si>
   <si>
     <t>30,09%</t>
   </si>
   <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>34,05%</t>
   </si>
   <si>
-    <t>35,46%</t>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
 </sst>
 </file>
@@ -2817,7 +2745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B11268E-F46B-4975-86A4-73661AE5643B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6961AEA-2A5D-4D38-B44F-D589159AEFB8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3399,7 +3327,7 @@
         <v>184</v>
       </c>
       <c r="D13" s="7">
-        <v>186371</v>
+        <v>186370</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -3603,7 +3531,7 @@
         <v>1649</v>
       </c>
       <c r="D17" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -3779,10 +3707,10 @@
         <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>156</v>
@@ -3791,13 +3719,13 @@
         <v>160784</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3740,13 @@
         <v>70715</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H21" s="7">
         <v>76</v>
@@ -3920,7 +3848,7 @@
         <v>171</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>83</v>
@@ -3929,13 +3857,13 @@
         <v>88494</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>257</v>
@@ -3944,13 +3872,13 @@
         <v>272071</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +3946,13 @@
         <v>50233</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -4033,13 +3961,13 @@
         <v>82356</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -4048,13 +3976,13 @@
         <v>132589</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,10 +4000,10 @@
         <v>83</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>209</v>
@@ -4084,13 +4012,13 @@
         <v>219072</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>351</v>
@@ -4099,13 +4027,13 @@
         <v>362341</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4048,13 @@
         <v>495950</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="H27" s="7">
         <v>760</v>
@@ -4135,13 +4063,13 @@
         <v>783495</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M27" s="7">
         <v>1252</v>
@@ -4150,13 +4078,13 @@
         <v>1279444</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4099,13 @@
         <v>503973</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H28" s="7">
         <v>619</v>
@@ -4186,13 +4114,13 @@
         <v>631753</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>1109</v>
@@ -4201,13 +4129,13 @@
         <v>1135726</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4150,13 @@
         <v>1145214</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>1057</v>
@@ -4237,13 +4165,13 @@
         <v>1071104</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>2190</v>
@@ -4252,13 +4180,13 @@
         <v>2216317</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,16 +4198,16 @@
         <v>906</v>
       </c>
       <c r="D30" s="7">
-        <v>937905</v>
+        <v>937906</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>574</v>
@@ -4288,13 +4216,13 @@
         <v>591419</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>1480</v>
@@ -4303,13 +4231,13 @@
         <v>1529324</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,7 +4249,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>70</v>
@@ -4351,7 +4279,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
@@ -4365,7 +4293,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4384,7 +4312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D6C8B6-E3FB-4538-9AC2-A4F5FCEA9688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F9897-EE79-4EE5-A10E-111FBD2F3123}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4401,7 +4329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4508,13 +4436,13 @@
         <v>29586</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
         <v>85</v>
@@ -4523,13 +4451,13 @@
         <v>92524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>110</v>
@@ -4538,13 +4466,13 @@
         <v>122111</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4487,13 @@
         <v>66928</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -4574,13 +4502,13 @@
         <v>107006</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>159</v>
@@ -4589,13 +4517,13 @@
         <v>173934</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4538,13 @@
         <v>200772</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H6" s="7">
         <v>345</v>
@@ -4625,13 +4553,13 @@
         <v>369940</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>249</v>
+        <v>59</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M6" s="7">
         <v>530</v>
@@ -4640,13 +4568,13 @@
         <v>570712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4589,13 @@
         <v>125920</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>182</v>
@@ -4676,13 +4604,13 @@
         <v>194431</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>302</v>
@@ -4691,13 +4619,13 @@
         <v>320352</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4640,13 @@
         <v>290336</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>317</v>
@@ -4727,10 +4655,10 @@
         <v>340111</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>265</v>
@@ -4745,10 +4673,10 @@
         <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,10 +4691,10 @@
         <v>260136</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>270</v>
@@ -4796,10 +4724,10 @@
         <v>274</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>147</v>
+        <v>275</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4795,13 @@
         <v>42861</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>87</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -4882,10 +4810,10 @@
         <v>64446</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>280</v>
@@ -4897,13 +4825,13 @@
         <v>107308</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4846,13 @@
         <v>36863</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -4933,13 +4861,13 @@
         <v>82133</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M12" s="7">
         <v>104</v>
@@ -4948,13 +4876,13 @@
         <v>118996</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4897,13 @@
         <v>221043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>249</v>
@@ -4984,13 +4912,13 @@
         <v>265820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>105</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>457</v>
@@ -4999,13 +4927,13 @@
         <v>486862</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +4948,13 @@
         <v>278722</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
         <v>238</v>
@@ -5035,13 +4963,13 @@
         <v>254499</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
@@ -5050,13 +4978,13 @@
         <v>533221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +4999,13 @@
         <v>605901</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H15" s="7">
         <v>522</v>
@@ -5086,13 +5014,13 @@
         <v>556136</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M15" s="7">
         <v>1094</v>
@@ -5101,13 +5029,13 @@
         <v>1162037</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5050,13 @@
         <v>777436</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
         <v>496</v>
@@ -5137,13 +5065,13 @@
         <v>529824</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>1234</v>
@@ -5152,13 +5080,13 @@
         <v>1307260</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5154,13 @@
         <v>5033</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -5241,13 +5169,13 @@
         <v>7032</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -5256,13 +5184,13 @@
         <v>12065</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5205,13 @@
         <v>7654</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>333</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5292,13 +5220,13 @@
         <v>13093</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -5307,13 +5235,13 @@
         <v>20747</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5256,13 @@
         <v>57264</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -5343,13 +5271,13 @@
         <v>64440</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -5358,13 +5286,13 @@
         <v>121704</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5307,13 @@
         <v>75974</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H21" s="7">
         <v>60</v>
@@ -5394,13 +5322,13 @@
         <v>67247</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M21" s="7">
         <v>124</v>
@@ -5409,13 +5337,13 @@
         <v>143221</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5358,13 @@
         <v>155183</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>138</v>
@@ -5445,13 +5373,13 @@
         <v>153552</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>363</v>
+        <v>167</v>
       </c>
       <c r="M22" s="7">
         <v>281</v>
@@ -5460,13 +5388,13 @@
         <v>308734</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5409,13 @@
         <v>179136</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H23" s="7">
         <v>136</v>
@@ -5496,13 +5424,13 @@
         <v>152203</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M23" s="7">
         <v>306</v>
@@ -5511,13 +5439,13 @@
         <v>331340</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5513,13 @@
         <v>77481</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="H25" s="7">
         <v>147</v>
@@ -5600,13 +5528,13 @@
         <v>164003</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M25" s="7">
         <v>218</v>
@@ -5615,13 +5543,13 @@
         <v>241483</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5564,13 @@
         <v>111444</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H26" s="7">
         <v>183</v>
@@ -5651,13 +5579,13 @@
         <v>202233</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M26" s="7">
         <v>280</v>
@@ -5666,13 +5594,13 @@
         <v>313677</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>390</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5615,13 @@
         <v>479078</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>153</v>
+        <v>394</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>393</v>
+        <v>259</v>
       </c>
       <c r="H27" s="7">
         <v>652</v>
@@ -5702,13 +5630,13 @@
         <v>700199</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M27" s="7">
         <v>1095</v>
@@ -5717,13 +5645,13 @@
         <v>1179278</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5666,13 @@
         <v>480617</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H28" s="7">
         <v>480</v>
@@ -5753,13 +5681,13 @@
         <v>516177</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>156</v>
+        <v>405</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="M28" s="7">
         <v>927</v>
@@ -5768,10 +5696,10 @@
         <v>996794</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>407</v>
@@ -5825,7 +5753,7 @@
         <v>415</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5768,13 @@
         <v>1216708</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="H30" s="7">
         <v>849</v>
@@ -5855,13 +5783,13 @@
         <v>914860</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M30" s="7">
         <v>2005</v>
@@ -5870,13 +5798,13 @@
         <v>2131569</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,7 +5860,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -5951,7 +5879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00E9B54-D75A-495F-B9E8-275C90463DEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA35C8D3-04CD-475B-B3D7-AFDE515B835A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5968,7 +5896,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6075,13 +6003,13 @@
         <v>26436</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>282</v>
+        <v>427</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>425</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>188</v>
+        <v>428</v>
       </c>
       <c r="H4" s="7">
         <v>52</v>
@@ -6090,13 +6018,13 @@
         <v>60038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>426</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M4" s="7">
         <v>81</v>
@@ -6105,13 +6033,13 @@
         <v>86473</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6054,13 @@
         <v>47674</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H5" s="7">
         <v>104</v>
@@ -6141,13 +6069,13 @@
         <v>123565</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>350</v>
+        <v>437</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
@@ -6156,13 +6084,13 @@
         <v>171238</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6105,13 @@
         <v>168447</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H6" s="7">
         <v>227</v>
@@ -6192,13 +6120,13 @@
         <v>255541</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M6" s="7">
         <v>405</v>
@@ -6207,13 +6135,13 @@
         <v>423988</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6156,13 @@
         <v>183580</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H7" s="7">
         <v>206</v>
@@ -6243,13 +6171,13 @@
         <v>223488</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M7" s="7">
         <v>394</v>
@@ -6258,13 +6186,13 @@
         <v>407068</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6207,13 @@
         <v>151327</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>461</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>457</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>161</v>
@@ -6294,13 +6222,13 @@
         <v>175583</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>462</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>402</v>
+        <v>93</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="M8" s="7">
         <v>312</v>
@@ -6309,13 +6237,13 @@
         <v>326910</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6258,13 @@
         <v>175897</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="H9" s="7">
         <v>140</v>
@@ -6345,13 +6273,13 @@
         <v>154330</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>465</v>
+        <v>310</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>307</v>
+        <v>470</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>210</v>
+        <v>471</v>
       </c>
       <c r="M9" s="7">
         <v>306</v>
@@ -6360,13 +6288,13 @@
         <v>330226</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6362,13 @@
         <v>25189</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>471</v>
+        <v>12</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -6449,13 +6377,13 @@
         <v>41794</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -6464,10 +6392,10 @@
         <v>66983</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>475</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>477</v>
@@ -6485,13 +6413,13 @@
         <v>50210</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -6500,13 +6428,13 @@
         <v>75044</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>142</v>
+        <v>485</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>482</v>
+        <v>280</v>
       </c>
       <c r="M12" s="7">
         <v>113</v>
@@ -6515,13 +6443,13 @@
         <v>125255</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>483</v>
+        <v>334</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>484</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6464,13 @@
         <v>196216</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H13" s="7">
         <v>236</v>
@@ -6551,10 +6479,10 @@
         <v>252799</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>490</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>491</v>
@@ -6623,7 +6551,7 @@
         <v>502</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>503</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6566,13 @@
         <v>629835</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="H15" s="7">
         <v>573</v>
@@ -6653,13 +6581,13 @@
         <v>588198</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>313</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="M15" s="7">
         <v>1162</v>
@@ -6668,13 +6596,13 @@
         <v>1218033</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6617,13 @@
         <v>789313</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="H16" s="7">
         <v>648</v>
@@ -6704,13 +6632,13 @@
         <v>667071</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="M16" s="7">
         <v>1387</v>
@@ -6719,13 +6647,13 @@
         <v>1456384</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6721,13 @@
         <v>8842</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>336</v>
+        <v>519</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>521</v>
+        <v>476</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -6808,13 +6736,13 @@
         <v>5780</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>523</v>
+        <v>133</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -6823,13 +6751,13 @@
         <v>14623</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>526</v>
+        <v>476</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,13 +6772,13 @@
         <v>7342</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -6859,13 +6787,13 @@
         <v>10974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>531</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -6874,13 +6802,13 @@
         <v>18316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6823,13 @@
         <v>56245</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -6910,13 +6838,13 @@
         <v>68892</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -6925,13 +6853,13 @@
         <v>125138</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6874,13 @@
         <v>108027</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -6961,13 +6889,13 @@
         <v>109967</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>548</v>
+        <v>398</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="M21" s="7">
         <v>205</v>
@@ -6976,13 +6904,13 @@
         <v>217993</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>551</v>
+        <v>204</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +6925,13 @@
         <v>172619</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -7012,13 +6940,13 @@
         <v>176845</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="M22" s="7">
         <v>327</v>
@@ -7027,13 +6955,13 @@
         <v>349464</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +6976,13 @@
         <v>193810</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>554</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="H23" s="7">
         <v>171</v>
@@ -7063,13 +6991,13 @@
         <v>175612</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>558</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M23" s="7">
         <v>344</v>
@@ -7078,13 +7006,13 @@
         <v>369422</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7080,13 @@
         <v>60467</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>569</v>
+        <v>482</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>570</v>
+        <v>341</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>571</v>
+        <v>282</v>
       </c>
       <c r="H25" s="7">
         <v>96</v>
@@ -7167,13 +7095,13 @@
         <v>107612</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>87</v>
+        <v>563</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M25" s="7">
         <v>155</v>
@@ -7182,13 +7110,13 @@
         <v>168078</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>335</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,10 +7134,10 @@
         <v>135</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>575</v>
+        <v>486</v>
       </c>
       <c r="H26" s="7">
         <v>180</v>
@@ -7218,13 +7146,13 @@
         <v>209583</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>576</v>
+        <v>22</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="M26" s="7">
         <v>282</v>
@@ -7233,13 +7161,13 @@
         <v>314809</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7182,13 @@
         <v>420908</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="H27" s="7">
         <v>530</v>
@@ -7272,10 +7200,10 @@
         <v>47</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="M27" s="7">
         <v>948</v>
@@ -7284,13 +7212,13 @@
         <v>998141</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>589</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,13 +7233,13 @@
         <v>674106</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>592</v>
+        <v>274</v>
       </c>
       <c r="H28" s="7">
         <v>654</v>
@@ -7320,13 +7248,13 @@
         <v>693814</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="M28" s="7">
         <v>1308</v>
@@ -7335,13 +7263,13 @@
         <v>1367920</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>585</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,13 +7284,13 @@
         <v>953781</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>268</v>
+        <v>589</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="H29" s="7">
         <v>901</v>
@@ -7371,13 +7299,13 @@
         <v>940626</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>441</v>
+        <v>592</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="M29" s="7">
         <v>1801</v>
@@ -7386,13 +7314,13 @@
         <v>1894407</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>602</v>
+        <v>422</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>603</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7335,13 @@
         <v>1159020</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="H30" s="7">
         <v>959</v>
@@ -7422,13 +7350,13 @@
         <v>997013</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="M30" s="7">
         <v>2037</v>
@@ -7437,13 +7365,13 @@
         <v>2156033</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>612</v>
+        <v>323</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7499,7 +7427,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -7518,7 +7446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BC66A7-E235-4A3B-948B-F1732DD3710A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060A9D9B-F9E9-46D5-802A-B0CF24220255}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7535,7 +7463,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7642,13 +7570,13 @@
         <v>22511</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>616</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="H4" s="7">
         <v>139</v>
@@ -7657,13 +7585,13 @@
         <v>70075</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="M4" s="7">
         <v>175</v>
@@ -7672,13 +7600,13 @@
         <v>92586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,13 +7621,13 @@
         <v>49213</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="H5" s="7">
         <v>165</v>
@@ -7708,13 +7636,13 @@
         <v>93986</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="M5" s="7">
         <v>231</v>
@@ -7723,13 +7651,13 @@
         <v>143199</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,13 +7672,13 @@
         <v>104935</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>634</v>
+        <v>455</v>
       </c>
       <c r="H6" s="7">
         <v>341</v>
@@ -7759,13 +7687,13 @@
         <v>201278</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>58</v>
+        <v>622</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>420</v>
+        <v>624</v>
       </c>
       <c r="M6" s="7">
         <v>481</v>
@@ -7774,13 +7702,13 @@
         <v>306213</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>637</v>
+        <v>199</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>638</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,13 +7723,13 @@
         <v>111435</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>640</v>
+        <v>67</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="H7" s="7">
         <v>286</v>
@@ -7810,13 +7738,13 @@
         <v>163600</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>503</v>
+        <v>273</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>643</v>
+        <v>195</v>
       </c>
       <c r="M7" s="7">
         <v>423</v>
@@ -7825,13 +7753,13 @@
         <v>275036</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,13 +7774,13 @@
         <v>120700</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>647</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="H8" s="7">
         <v>298</v>
@@ -7861,13 +7789,13 @@
         <v>178853</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="M8" s="7">
         <v>449</v>
@@ -7876,13 +7804,13 @@
         <v>299554</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>351</v>
+        <v>638</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,13 +7825,13 @@
         <v>131866</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>63</v>
+        <v>627</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>597</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="H9" s="7">
         <v>196</v>
@@ -7912,13 +7840,13 @@
         <v>127046</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>586</v>
+        <v>643</v>
       </c>
       <c r="M9" s="7">
         <v>356</v>
@@ -7927,13 +7855,13 @@
         <v>258912</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>92</v>
+        <v>645</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8001,13 +7929,13 @@
         <v>27871</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -8016,13 +7944,13 @@
         <v>38326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -8031,13 +7959,13 @@
         <v>66197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>666</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>667</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8052,13 +7980,13 @@
         <v>71975</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>484</v>
+        <v>654</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
@@ -8067,13 +7995,13 @@
         <v>97990</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>670</v>
+        <v>88</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>672</v>
+        <v>185</v>
       </c>
       <c r="M12" s="7">
         <v>233</v>
@@ -8082,13 +8010,13 @@
         <v>169965</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>657</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,13 +8031,13 @@
         <v>230666</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>677</v>
+        <v>494</v>
       </c>
       <c r="H13" s="7">
         <v>550</v>
@@ -8118,28 +8046,28 @@
         <v>327777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="M13" s="7">
         <v>815</v>
       </c>
       <c r="N13" s="7">
-        <v>558444</v>
+        <v>558443</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8082,13 @@
         <v>347093</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="H14" s="7">
         <v>442</v>
@@ -8169,13 +8097,13 @@
         <v>295782</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>671</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>687</v>
+        <v>26</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>688</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>759</v>
@@ -8184,13 +8112,13 @@
         <v>642875</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>690</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8205,13 +8133,13 @@
         <v>589424</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>692</v>
+        <v>248</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="H15" s="7">
         <v>811</v>
@@ -8220,28 +8148,28 @@
         <v>705895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="M15" s="7">
         <v>1381</v>
       </c>
       <c r="N15" s="7">
-        <v>1295320</v>
+        <v>1295319</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>698</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8256,13 +8184,13 @@
         <v>894992</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="H16" s="7">
         <v>909</v>
@@ -8271,13 +8199,13 @@
         <v>782641</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="M16" s="7">
         <v>1639</v>
@@ -8286,13 +8214,13 @@
         <v>1677633</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>706</v>
+        <v>553</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8334,7 +8262,7 @@
         <v>4911</v>
       </c>
       <c r="N17" s="7">
-        <v>4410433</v>
+        <v>4410432</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -8360,13 +8288,13 @@
         <v>5098</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>708</v>
+        <v>476</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>230</v>
+        <v>687</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -8375,13 +8303,13 @@
         <v>5996</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>326</v>
+        <v>689</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>478</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -8390,13 +8318,13 @@
         <v>11094</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>712</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8411,13 +8339,13 @@
         <v>31114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>480</v>
+        <v>692</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -8426,13 +8354,13 @@
         <v>19793</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>616</v>
+        <v>694</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
@@ -8441,13 +8369,13 @@
         <v>50907</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8462,13 +8390,13 @@
         <v>79125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>720</v>
+        <v>487</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>721</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>171</v>
@@ -8477,13 +8405,13 @@
         <v>115055</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>680</v>
+        <v>205</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>722</v>
+        <v>64</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
       <c r="M20" s="7">
         <v>264</v>
@@ -8492,13 +8420,13 @@
         <v>194180</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>725</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8513,13 +8441,13 @@
         <v>97473</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>726</v>
+        <v>45</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>728</v>
+        <v>705</v>
       </c>
       <c r="H21" s="7">
         <v>191</v>
@@ -8528,13 +8456,13 @@
         <v>119980</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>729</v>
+        <v>706</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="M21" s="7">
         <v>301</v>
@@ -8543,13 +8471,13 @@
         <v>217453</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>732</v>
+        <v>709</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>734</v>
+        <v>628</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,13 +8492,13 @@
         <v>187055</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>712</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>736</v>
+        <v>713</v>
       </c>
       <c r="H22" s="7">
         <v>305</v>
@@ -8582,10 +8510,10 @@
         <v>408</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>738</v>
+        <v>316</v>
       </c>
       <c r="M22" s="7">
         <v>508</v>
@@ -8594,13 +8522,13 @@
         <v>406194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>739</v>
+        <v>175</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8615,13 +8543,13 @@
         <v>273175</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>744</v>
+        <v>719</v>
       </c>
       <c r="H23" s="7">
         <v>289</v>
@@ -8630,13 +8558,13 @@
         <v>232234</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>745</v>
+        <v>720</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>422</v>
+        <v>721</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="M23" s="7">
         <v>528</v>
@@ -8645,13 +8573,13 @@
         <v>505409</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>748</v>
+        <v>724</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8719,13 +8647,13 @@
         <v>55480</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>750</v>
+        <v>726</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>751</v>
+        <v>78</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>752</v>
+        <v>77</v>
       </c>
       <c r="H25" s="7">
         <v>202</v>
@@ -8734,13 +8662,13 @@
         <v>114397</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>522</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>753</v>
+        <v>654</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>754</v>
+        <v>283</v>
       </c>
       <c r="M25" s="7">
         <v>273</v>
@@ -8749,13 +8677,13 @@
         <v>169877</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>727</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>755</v>
+        <v>728</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>529</v>
+        <v>698</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8770,13 +8698,13 @@
         <v>152302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>756</v>
+        <v>729</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>575</v>
+        <v>730</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>757</v>
+        <v>731</v>
       </c>
       <c r="H26" s="7">
         <v>356</v>
@@ -8785,13 +8713,13 @@
         <v>211769</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>718</v>
+        <v>339</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="M26" s="7">
         <v>533</v>
@@ -8800,13 +8728,13 @@
         <v>364071</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>577</v>
+        <v>734</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>760</v>
+        <v>570</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>761</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8821,13 +8749,13 @@
         <v>414726</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>490</v>
+        <v>736</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>762</v>
+        <v>669</v>
       </c>
       <c r="H27" s="7">
         <v>1062</v>
@@ -8836,13 +8764,13 @@
         <v>644110</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>763</v>
+        <v>737</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
       <c r="M27" s="7">
         <v>1560</v>
@@ -8851,13 +8779,13 @@
         <v>1058836</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>98</v>
+        <v>742</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8872,13 +8800,13 @@
         <v>556001</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>768</v>
+        <v>744</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="H28" s="7">
         <v>919</v>
@@ -8887,13 +8815,13 @@
         <v>579363</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>393</v>
+        <v>738</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>770</v>
+        <v>746</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>44</v>
+        <v>747</v>
       </c>
       <c r="M28" s="7">
         <v>1483</v>
@@ -8902,13 +8830,13 @@
         <v>1135364</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>771</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8923,13 +8851,13 @@
         <v>897179</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>774</v>
+        <v>750</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>751</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="H29" s="7">
         <v>1414</v>
@@ -8938,13 +8866,13 @@
         <v>1103888</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>776</v>
+        <v>552</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>778</v>
+        <v>754</v>
       </c>
       <c r="M29" s="7">
         <v>2338</v>
@@ -8953,13 +8881,13 @@
         <v>2001067</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>779</v>
+        <v>755</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>780</v>
+        <v>756</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>410</v>
+        <v>757</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8974,13 +8902,13 @@
         <v>1300033</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>781</v>
+        <v>376</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>782</v>
+        <v>512</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>783</v>
+        <v>758</v>
       </c>
       <c r="H30" s="7">
         <v>1394</v>
@@ -8989,13 +8917,13 @@
         <v>1141921</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="M30" s="7">
         <v>2523</v>
@@ -9004,13 +8932,13 @@
         <v>2441954</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>763</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>788</v>
+        <v>764</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9066,7 +8994,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1202-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1202-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BA4A86C-1985-44FF-9EBE-A1D3EEA68E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82E565B-CC3A-4D6D-8A7A-D4A81184CDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{04CCABB0-D498-48C6-9F6A-F48AC15649F7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{59230028-8D13-4604-A788-C5395D43E424}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="772">
   <si>
     <t>Población según la frecuencia de tener mucha energía en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -1853,487 +1853,508 @@
     <t>Población según la frecuencia de tener mucha energía en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
   </si>
   <si>
     <t>9,13%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>11,9%</t>
   </si>
   <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>23,77%</t>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
   </si>
   <si>
     <t>28,09%</t>
   </si>
   <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
   </si>
 </sst>
 </file>
@@ -2745,7 +2766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6961AEA-2A5D-4D38-B44F-D589159AEFB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0035210E-7418-4467-BFC0-F162A1427FAE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2998,7 +3019,7 @@
         <v>652</v>
       </c>
       <c r="N6" s="7">
-        <v>662499</v>
+        <v>662498</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -3100,7 +3121,7 @@
         <v>609</v>
       </c>
       <c r="N8" s="7">
-        <v>608193</v>
+        <v>608192</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -3202,7 +3223,7 @@
         <v>2329</v>
       </c>
       <c r="N10" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>70</v>
@@ -3327,7 +3348,7 @@
         <v>184</v>
       </c>
       <c r="D13" s="7">
-        <v>186370</v>
+        <v>186371</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -3531,7 +3552,7 @@
         <v>1649</v>
       </c>
       <c r="D17" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -4060,7 +4081,7 @@
         <v>760</v>
       </c>
       <c r="I27" s="7">
-        <v>783495</v>
+        <v>783494</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>194</v>
@@ -4162,7 +4183,7 @@
         <v>1057</v>
       </c>
       <c r="I29" s="7">
-        <v>1071104</v>
+        <v>1071103</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>210</v>
@@ -4198,7 +4219,7 @@
         <v>906</v>
       </c>
       <c r="D30" s="7">
-        <v>937906</v>
+        <v>937905</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>216</v>
@@ -4249,7 +4270,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>70</v>
@@ -4264,7 +4285,7 @@
         <v>3297</v>
       </c>
       <c r="I31" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>70</v>
@@ -4279,7 +4300,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
@@ -4312,7 +4333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F9897-EE79-4EE5-A10E-111FBD2F3123}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A57978-0001-4B09-8AD6-CD37458598C0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5026,7 +5047,7 @@
         <v>1094</v>
       </c>
       <c r="N15" s="7">
-        <v>1162037</v>
+        <v>1162036</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>317</v>
@@ -5128,7 +5149,7 @@
         <v>3486</v>
       </c>
       <c r="N17" s="7">
-        <v>3715684</v>
+        <v>3715683</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -5879,7 +5900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA35C8D3-04CD-475B-B3D7-AFDE515B835A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D73A48-9E76-4F3F-B8BF-37CB44733F53}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6527,7 +6548,7 @@
         <v>342</v>
       </c>
       <c r="I14" s="7">
-        <v>360360</v>
+        <v>360359</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>498</v>
@@ -6644,7 +6665,7 @@
         <v>1387</v>
       </c>
       <c r="N16" s="7">
-        <v>1456384</v>
+        <v>1456383</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>517</v>
@@ -6680,7 +6701,7 @@
         <v>1905</v>
       </c>
       <c r="I17" s="7">
-        <v>1985266</v>
+        <v>1985265</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>70</v>
@@ -6695,7 +6716,7 @@
         <v>3854</v>
       </c>
       <c r="N17" s="7">
-        <v>4058528</v>
+        <v>4058527</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -6901,7 +6922,7 @@
         <v>205</v>
       </c>
       <c r="N21" s="7">
-        <v>217993</v>
+        <v>217994</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>543</v>
@@ -7003,7 +7024,7 @@
         <v>344</v>
       </c>
       <c r="N23" s="7">
-        <v>369422</v>
+        <v>369423</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>560</v>
@@ -7054,7 +7075,7 @@
         <v>1026</v>
       </c>
       <c r="N24" s="7">
-        <v>1094956</v>
+        <v>1094957</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -7446,7 +7467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060A9D9B-F9E9-46D5-802A-B0CF24220255}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC63FC0-FDF8-4D95-864F-B2921C1DD584}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7567,13 +7588,13 @@
         <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>22511</v>
+        <v>21837</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>604</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>605</v>
@@ -7582,7 +7603,7 @@
         <v>139</v>
       </c>
       <c r="I4" s="7">
-        <v>70075</v>
+        <v>64982</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>606</v>
@@ -7591,22 +7612,22 @@
         <v>607</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>608</v>
+        <v>493</v>
       </c>
       <c r="M4" s="7">
         <v>175</v>
       </c>
       <c r="N4" s="7">
-        <v>92586</v>
+        <v>86819</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,46 +7639,46 @@
         <v>66</v>
       </c>
       <c r="D5" s="7">
-        <v>49213</v>
+        <v>46317</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="H5" s="7">
         <v>165</v>
       </c>
       <c r="I5" s="7">
-        <v>93986</v>
+        <v>85232</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>293</v>
+        <v>613</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="M5" s="7">
         <v>231</v>
       </c>
       <c r="N5" s="7">
-        <v>143199</v>
+        <v>131549</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,22 +7690,22 @@
         <v>140</v>
       </c>
       <c r="D6" s="7">
-        <v>104935</v>
+        <v>101248</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="H6" s="7">
         <v>341</v>
       </c>
       <c r="I6" s="7">
-        <v>201278</v>
+        <v>182739</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>622</v>
@@ -7699,16 +7720,16 @@
         <v>481</v>
       </c>
       <c r="N6" s="7">
-        <v>306213</v>
+        <v>283986</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>625</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>199</v>
+        <v>626</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>196</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,46 +7741,46 @@
         <v>137</v>
       </c>
       <c r="D7" s="7">
-        <v>111435</v>
+        <v>106270</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>67</v>
+        <v>629</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="H7" s="7">
         <v>286</v>
       </c>
       <c r="I7" s="7">
-        <v>163600</v>
+        <v>147351</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>273</v>
+        <v>631</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>195</v>
+        <v>633</v>
       </c>
       <c r="M7" s="7">
         <v>423</v>
       </c>
       <c r="N7" s="7">
-        <v>275036</v>
+        <v>253621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7771,46 +7792,46 @@
         <v>151</v>
       </c>
       <c r="D8" s="7">
-        <v>120700</v>
+        <v>114313</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>637</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="H8" s="7">
         <v>298</v>
       </c>
       <c r="I8" s="7">
-        <v>178853</v>
+        <v>159887</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="M8" s="7">
         <v>449</v>
       </c>
       <c r="N8" s="7">
-        <v>299554</v>
+        <v>274199</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>637</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7822,46 +7843,46 @@
         <v>160</v>
       </c>
       <c r="D9" s="7">
-        <v>131866</v>
+        <v>123984</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>627</v>
+        <v>224</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>644</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H9" s="7">
         <v>196</v>
       </c>
       <c r="I9" s="7">
-        <v>127046</v>
+        <v>114288</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="M9" s="7">
         <v>356</v>
       </c>
       <c r="N9" s="7">
-        <v>258912</v>
+        <v>238273</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7873,7 +7894,7 @@
         <v>690</v>
       </c>
       <c r="D10" s="7">
-        <v>540661</v>
+        <v>513969</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -7888,7 +7909,7 @@
         <v>1425</v>
       </c>
       <c r="I10" s="7">
-        <v>834839</v>
+        <v>754478</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>70</v>
@@ -7903,7 +7924,7 @@
         <v>2115</v>
       </c>
       <c r="N10" s="7">
-        <v>1375500</v>
+        <v>1268447</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>70</v>
@@ -7926,46 +7947,46 @@
         <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>27871</v>
+        <v>26543</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>335</v>
+        <v>652</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>648</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>38326</v>
+        <v>35565</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>649</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>650</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
       </c>
       <c r="N11" s="7">
-        <v>66197</v>
+        <v>62108</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>656</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,46 +7998,46 @@
         <v>79</v>
       </c>
       <c r="D12" s="7">
-        <v>71975</v>
+        <v>68405</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>653</v>
+        <v>384</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>654</v>
+        <v>526</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>655</v>
+        <v>484</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
       </c>
       <c r="I12" s="7">
-        <v>97990</v>
+        <v>90894</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>88</v>
+        <v>657</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>656</v>
+        <v>142</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M12" s="7">
         <v>233</v>
       </c>
       <c r="N12" s="7">
-        <v>169965</v>
+        <v>159299</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>657</v>
+        <v>283</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8028,46 +8049,46 @@
         <v>265</v>
       </c>
       <c r="D13" s="7">
-        <v>230666</v>
+        <v>222450</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>660</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="H13" s="7">
         <v>550</v>
       </c>
       <c r="I13" s="7">
-        <v>327777</v>
+        <v>302868</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>664</v>
       </c>
       <c r="M13" s="7">
         <v>815</v>
       </c>
       <c r="N13" s="7">
-        <v>558443</v>
+        <v>525318</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,46 +8100,46 @@
         <v>317</v>
       </c>
       <c r="D14" s="7">
-        <v>347093</v>
+        <v>533818</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>669</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>670</v>
       </c>
       <c r="H14" s="7">
         <v>442</v>
       </c>
       <c r="I14" s="7">
-        <v>295782</v>
+        <v>275455</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>672</v>
       </c>
       <c r="M14" s="7">
         <v>759</v>
       </c>
       <c r="N14" s="7">
-        <v>642875</v>
+        <v>809273</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>43</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,46 +8151,46 @@
         <v>570</v>
       </c>
       <c r="D15" s="7">
-        <v>589424</v>
+        <v>578908</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>248</v>
+        <v>676</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="H15" s="7">
         <v>811</v>
       </c>
       <c r="I15" s="7">
-        <v>705895</v>
+        <v>807409</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="M15" s="7">
         <v>1381</v>
       </c>
       <c r="N15" s="7">
-        <v>1295319</v>
+        <v>1386318</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>217</v>
+        <v>682</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>517</v>
+        <v>683</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8181,46 +8202,46 @@
         <v>730</v>
       </c>
       <c r="D16" s="7">
-        <v>894992</v>
+        <v>860203</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>679</v>
+        <v>321</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="H16" s="7">
         <v>909</v>
       </c>
       <c r="I16" s="7">
-        <v>782641</v>
+        <v>724632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="M16" s="7">
         <v>1639</v>
       </c>
       <c r="N16" s="7">
-        <v>1677633</v>
+        <v>1584835</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>553</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8232,7 +8253,7 @@
         <v>1992</v>
       </c>
       <c r="D17" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -8247,7 +8268,7 @@
         <v>2919</v>
       </c>
       <c r="I17" s="7">
-        <v>2248410</v>
+        <v>2236824</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>70</v>
@@ -8262,7 +8283,7 @@
         <v>4911</v>
       </c>
       <c r="N17" s="7">
-        <v>4410432</v>
+        <v>4527151</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -8285,46 +8306,46 @@
         <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>5098</v>
+        <v>4910</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>476</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>691</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>687</v>
+        <v>77</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>5996</v>
+        <v>5654</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>478</v>
+        <v>332</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
       </c>
       <c r="N18" s="7">
-        <v>11094</v>
+        <v>10564</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>691</v>
+        <v>330</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>341</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8336,46 +8357,46 @@
         <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>31114</v>
+        <v>30299</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>380</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>692</v>
+        <v>290</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>19793</v>
+        <v>18141</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>695</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
       </c>
       <c r="N19" s="7">
-        <v>50907</v>
+        <v>48440</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>698</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8387,46 +8408,46 @@
         <v>93</v>
       </c>
       <c r="D20" s="7">
-        <v>79125</v>
+        <v>75075</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>487</v>
+        <v>702</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>703</v>
       </c>
       <c r="H20" s="7">
         <v>171</v>
       </c>
       <c r="I20" s="7">
-        <v>115055</v>
+        <v>105891</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>205</v>
+        <v>704</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>705</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="M20" s="7">
         <v>264</v>
       </c>
       <c r="N20" s="7">
-        <v>194180</v>
+        <v>180966</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>393</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8438,46 +8459,46 @@
         <v>110</v>
       </c>
       <c r="D21" s="7">
-        <v>97473</v>
+        <v>93784</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>45</v>
+        <v>709</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>705</v>
+        <v>219</v>
       </c>
       <c r="H21" s="7">
         <v>191</v>
       </c>
       <c r="I21" s="7">
-        <v>119980</v>
+        <v>111931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>706</v>
+        <v>92</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>707</v>
+        <v>354</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="M21" s="7">
         <v>301</v>
       </c>
       <c r="N21" s="7">
-        <v>217453</v>
+        <v>205715</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>709</v>
+        <v>535</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>628</v>
+        <v>713</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8489,46 +8510,46 @@
         <v>203</v>
       </c>
       <c r="D22" s="7">
-        <v>187055</v>
+        <v>180640</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="H22" s="7">
         <v>305</v>
       </c>
       <c r="I22" s="7">
-        <v>219139</v>
+        <v>206832</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>408</v>
+        <v>717</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>316</v>
+        <v>719</v>
       </c>
       <c r="M22" s="7">
         <v>508</v>
       </c>
       <c r="N22" s="7">
-        <v>406194</v>
+        <v>387472</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>175</v>
+        <v>720</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8540,46 +8561,46 @@
         <v>239</v>
       </c>
       <c r="D23" s="7">
-        <v>273175</v>
+        <v>261915</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="H23" s="7">
         <v>289</v>
       </c>
       <c r="I23" s="7">
-        <v>232234</v>
+        <v>210431</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="M23" s="7">
         <v>528</v>
       </c>
       <c r="N23" s="7">
-        <v>505409</v>
+        <v>472346</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8591,7 +8612,7 @@
         <v>681</v>
       </c>
       <c r="D24" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>70</v>
@@ -8606,7 +8627,7 @@
         <v>1003</v>
       </c>
       <c r="I24" s="7">
-        <v>712198</v>
+        <v>658880</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>70</v>
@@ -8621,7 +8642,7 @@
         <v>1684</v>
       </c>
       <c r="N24" s="7">
-        <v>1385237</v>
+        <v>1305503</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -8644,46 +8665,46 @@
         <v>71</v>
       </c>
       <c r="D25" s="7">
-        <v>55480</v>
+        <v>53290</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>726</v>
+        <v>332</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>78</v>
+        <v>732</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>77</v>
+        <v>733</v>
       </c>
       <c r="H25" s="7">
         <v>202</v>
       </c>
       <c r="I25" s="7">
-        <v>114397</v>
+        <v>106201</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>485</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>654</v>
+        <v>521</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>283</v>
+        <v>734</v>
       </c>
       <c r="M25" s="7">
         <v>273</v>
       </c>
       <c r="N25" s="7">
-        <v>169877</v>
+        <v>159490</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>728</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>698</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8695,46 +8716,46 @@
         <v>177</v>
       </c>
       <c r="D26" s="7">
-        <v>152302</v>
+        <v>145021</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>729</v>
+        <v>14</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="H26" s="7">
         <v>356</v>
       </c>
       <c r="I26" s="7">
-        <v>211769</v>
+        <v>194267</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>339</v>
+        <v>232</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="M26" s="7">
         <v>533</v>
       </c>
       <c r="N26" s="7">
-        <v>364071</v>
+        <v>339288</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>570</v>
+        <v>657</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>732</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8746,46 +8767,46 @@
         <v>498</v>
       </c>
       <c r="D27" s="7">
-        <v>414726</v>
+        <v>398772</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>735</v>
+        <v>442</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>669</v>
+        <v>742</v>
       </c>
       <c r="H27" s="7">
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>644110</v>
+        <v>591498</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="M27" s="7">
         <v>1560</v>
       </c>
       <c r="N27" s="7">
-        <v>1058836</v>
+        <v>990270</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>742</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8797,46 +8818,46 @@
         <v>564</v>
       </c>
       <c r="D28" s="7">
-        <v>556001</v>
+        <v>733873</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="H28" s="7">
         <v>919</v>
       </c>
       <c r="I28" s="7">
-        <v>579363</v>
+        <v>534737</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>738</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="M28" s="7">
         <v>1483</v>
       </c>
       <c r="N28" s="7">
-        <v>1135364</v>
+        <v>1268610</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>154</v>
+        <v>753</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8848,46 +8869,46 @@
         <v>924</v>
       </c>
       <c r="D29" s="7">
-        <v>897179</v>
+        <v>873861</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="H29" s="7">
         <v>1414</v>
       </c>
       <c r="I29" s="7">
-        <v>1103888</v>
+        <v>1174128</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>552</v>
+        <v>759</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="M29" s="7">
         <v>2338</v>
       </c>
       <c r="N29" s="7">
-        <v>2001067</v>
+        <v>2047989</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8899,46 +8920,46 @@
         <v>1129</v>
       </c>
       <c r="D30" s="7">
-        <v>1300033</v>
+        <v>1246103</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>376</v>
+        <v>765</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>512</v>
+        <v>766</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="H30" s="7">
         <v>1394</v>
       </c>
       <c r="I30" s="7">
-        <v>1141921</v>
+        <v>1049352</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>761</v>
+        <v>716</v>
       </c>
       <c r="M30" s="7">
         <v>2523</v>
       </c>
       <c r="N30" s="7">
-        <v>2441954</v>
+        <v>2295455</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>764</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8950,7 +8971,7 @@
         <v>3363</v>
       </c>
       <c r="D31" s="7">
-        <v>3375722</v>
+        <v>3450920</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>70</v>
@@ -8965,7 +8986,7 @@
         <v>5347</v>
       </c>
       <c r="I31" s="7">
-        <v>3795448</v>
+        <v>3650182</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>70</v>
@@ -8980,7 +9001,7 @@
         <v>8710</v>
       </c>
       <c r="N31" s="7">
-        <v>7171170</v>
+        <v>7101102</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
